--- a/OpenRefineStage/Operation record.xlsx
+++ b/OpenRefineStage/Operation record.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\CS513-DataCleaning\DataCleaningFinalProject\OpenRefineStage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF6035-CA4F-4F8A-81D2-D230F2DEE095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FD9ADF-E694-41BF-A58C-F96B663BB842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29235" yWindow="4200" windowWidth="14040" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
   <si>
     <t>Summary of Operations on the name column</t>
   </si>
@@ -208,6 +216,54 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Replace "Com" to "Commercial"</t>
+  </si>
+  <si>
+    <t>Replace "Comm" to "Commercial"</t>
+  </si>
+  <si>
+    <t>Replace "Educ" to "Educational"</t>
+  </si>
+  <si>
+    <t>Replace "Hotel For" to "Hotel"</t>
+  </si>
+  <si>
+    <t>Replace "Mil" to "Military"</t>
+  </si>
+  <si>
+    <t>Replace "Milit" to "Military"</t>
+  </si>
+  <si>
+    <t>Replace "Pat" to "Patriotic"</t>
+  </si>
+  <si>
+    <t>Replace "Patr" to "Patriotic"</t>
+  </si>
+  <si>
+    <t>Replace "Pol" to "Political"</t>
+  </si>
+  <si>
+    <t>Replace "Polit" to "Political"</t>
+  </si>
+  <si>
+    <t>Replace "Pricate" to "Private"</t>
+  </si>
+  <si>
+    <t>Replace "Soc" to "Social"</t>
+  </si>
+  <si>
+    <t>Summary of Operations on the keywords column</t>
+  </si>
+  <si>
+    <t>Drop the column</t>
+  </si>
+  <si>
+    <t>Summary of Operations on the language column</t>
+  </si>
+  <si>
+    <t>Summary of Operations on the location_type column</t>
   </si>
 </sst>
 </file>
@@ -301,13 +357,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +373,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,1694 +672,1903 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>127</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>5438</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
         <v>1781</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
         <v>48</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>118</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>28</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>134</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>134</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>281</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>12</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>12</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>89</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>36</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2"/>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8169</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>8</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>7</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2"/>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>6</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
         <v>5597</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
         <v>2329</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
         <v>805</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
         <v>39</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>25</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>25</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>19</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>51</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>50</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>25</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>8033</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="A60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
         <v>16</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>0</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>0</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>0</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>0</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
         <v>2251</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
         <v>32</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
         <v>4707</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>2</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>2</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>0</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>0</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>71</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>71</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>0</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>0</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>115</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="A80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>221</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="2">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2"/>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>0</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>8109</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>2</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>101</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="A87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="A88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="A89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="1">
         <v>12</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="9">
+        <v>291</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="9">
+        <v>13</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B92" s="9">
+        <v>153</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2">
-        <v>8</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B93" s="9">
+        <v>2</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="2">
-        <v>45</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B94" s="9">
+        <v>82</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="2">
-        <v>3235</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B95" s="9">
+        <v>2</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="2">
-        <v>25</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B96" s="9">
+        <v>35</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B97" s="9">
+        <v>102</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="2">
-        <v>461</v>
-      </c>
-      <c r="C98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="9">
+        <v>80</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="2">
-        <v>459</v>
-      </c>
-      <c r="C99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="9">
+        <v>10</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="2">
-        <v>7</v>
-      </c>
-      <c r="C100" s="2"/>
+      <c r="A100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="9">
+        <v>1</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="2">
-        <v>9</v>
-      </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="2">
-        <v>160</v>
-      </c>
-      <c r="C102" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="9">
+        <v>606</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="2">
-        <v>158</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1">
         <v>8</v>
       </c>
-      <c r="B105" s="2">
-        <v>362</v>
-      </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="2">
-        <v>294</v>
-      </c>
-      <c r="C106" s="2"/>
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45</v>
+      </c>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" s="2">
-        <v>582</v>
-      </c>
-      <c r="C107" s="2"/>
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3235</v>
+      </c>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="2">
-        <v>879</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1">
+        <v>25</v>
+      </c>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B110" s="1">
+        <v>461</v>
+      </c>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B111" s="1">
+        <v>459</v>
+      </c>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="2">
-        <v>384</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="2">
-        <v>38</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B113" s="1">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="2">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B114" s="1">
+        <v>160</v>
+      </c>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="2">
-        <v>1444</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B115" s="1">
+        <v>158</v>
+      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="2">
-        <v>4591</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="2">
-        <v>2</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>362</v>
+      </c>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="2">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1">
+        <v>294</v>
+      </c>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="2">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>582</v>
+      </c>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="1">
+        <v>879</v>
+      </c>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="A122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B124" s="1">
+        <v>384</v>
+      </c>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>38</v>
+      </c>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1">
         <v>0</v>
       </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="2">
-        <v>3</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="2">
-        <v>2728</v>
-      </c>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="2">
-        <v>272</v>
-      </c>
-      <c r="C126" s="2"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2">
-        <v>693</v>
-      </c>
-      <c r="C127" s="2"/>
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1444</v>
+      </c>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2">
-        <v>731</v>
-      </c>
-      <c r="C128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4591</v>
+      </c>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="2">
-        <v>28</v>
-      </c>
-      <c r="C129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="2">
-        <v>28</v>
-      </c>
-      <c r="C130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="2">
-        <v>1</v>
-      </c>
-      <c r="C132" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2728</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1">
+        <v>272</v>
+      </c>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="1">
+        <v>693</v>
+      </c>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="1">
+        <v>731</v>
+      </c>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>28</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="1">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B145" s="1">
         <v>423</v>
       </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B146" s="1">
         <v>422</v>
       </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="2">
-        <v>5</v>
-      </c>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="2">
-        <v>2634</v>
-      </c>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="2">
-        <v>268</v>
-      </c>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B139" s="2">
-        <v>6</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B140" s="2">
-        <v>31</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="2">
-        <v>12</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B142" s="2">
-        <v>20</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B143" s="2">
-        <v>363</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" s="2">
-        <v>28</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B145" s="2">
-        <v>24</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B146" s="2">
-        <v>1</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="2">
-        <v>3</v>
-      </c>
-      <c r="C147" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="2">
-        <v>0</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B149" s="2">
-        <v>1</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2634</v>
+      </c>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150" s="2">
-        <v>1</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1">
+        <v>268</v>
+      </c>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151" s="2">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>45</v>
+      <c r="A151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151" s="1">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152" s="2">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>46</v>
+      <c r="A152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" s="1">
+        <v>31</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>47</v>
+      <c r="A153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B153" s="1">
+        <v>12</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B154" s="2">
-        <v>3732</v>
-      </c>
-      <c r="C154" s="2"/>
+      <c r="A154" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" s="1">
+        <v>20</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="1">
+        <v>363</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B156" s="1"/>
+      <c r="A156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="1">
+        <v>28</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="B157" s="1">
+        <v>24</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B159" s="1">
+        <v>3</v>
+      </c>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3732</v>
+      </c>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B171" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1">
         <v>1542</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B175" s="1">
         <v>583</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B176" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B177" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B178" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B179" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B180" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B181" s="1">
         <v>3864</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" s="1">
+        <v>17545</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="B186" s="8"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B189" s="1">
+        <v>17545</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="2" t="s">
+      <c r="B191" s="6"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B193" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B194" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B195" s="1">
         <v>16959</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="6"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="2" t="s">
+      <c r="B197" s="5"/>
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B199" s="1">
         <v>14</v>
       </c>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B200" s="1">
         <v>555</v>
       </c>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="2">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1">
         <v>4440</v>
       </c>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="2">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1">
         <v>1333</v>
       </c>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="2">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
         <v>109</v>
       </c>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B204" s="1">
         <v>19</v>
       </c>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B205" s="1">
         <v>19</v>
       </c>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B206" s="1">
         <v>0</v>
       </c>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B207" s="1">
         <v>0</v>
       </c>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B208" s="1">
         <v>86</v>
       </c>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B209" s="1">
         <v>86</v>
       </c>
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B210" s="1">
         <v>81</v>
       </c>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B211" s="1">
         <v>314</v>
       </c>
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B212" s="1">
         <v>35</v>
       </c>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B213" s="1">
         <v>3</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B214" s="1">
         <v>620</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B218" s="1">
+        <v>17545</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A187:B187"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
